--- a/Data/Predictions/Graph Neural Network/Inductive/reformatted_exclude_previous_rating_model_2_predictions.xlsx
+++ b/Data/Predictions/Graph Neural Network/Inductive/reformatted_exclude_previous_rating_model_2_predictions.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -6853,7 +6853,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -6875,7 +6875,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -7073,7 +7073,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -7183,7 +7183,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -7205,7 +7205,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -7403,7 +7403,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -7535,7 +7535,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -7689,7 +7689,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -8085,7 +8085,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -8107,7 +8107,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -8239,7 +8239,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -8679,7 +8679,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -8855,7 +8855,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -8943,7 +8943,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -9075,7 +9075,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -9251,7 +9251,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
